--- a/gestione_eventi.xlsx
+++ b/gestione_eventi.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Eventi" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Eventi'!$A$1:$I$1</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -33,25 +32,17 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,17 +50,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,25 +432,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -501,12 +486,20 @@
           <t>TIMESTAMP MODIFICA</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>NOTE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TAG</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>31/01/2026</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>46053</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -529,17 +522,25 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>45939.88675850052</v>
+      <c r="G2" s="2" t="n">
+        <v>45939.88675849537</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Prevedere budget aggiuntivo</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>formazione, interno</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>26/03/2026</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>46107</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -566,23 +567,31 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>45957.39856405608</v>
+      <c r="G3" s="2" t="n">
+        <v>45957.39856405093</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>manager</t>
         </is>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>45959.64856405608</v>
+      <c r="I3" s="2" t="n">
+        <v>45959.64856405093</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Evento strategico Q1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>vendite, commerciale</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>31/03/2026</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>46112</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -609,23 +618,31 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>45957.40273072274</v>
+      <c r="G4" s="2" t="n">
+        <v>45957.40273071759</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>user2</t>
         </is>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>45958.90273072274</v>
+      <c r="I4" s="2" t="n">
+        <v>45958.90273071759</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Preparare materiale promozionale</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>strategico, high-priority</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>24/12/2025</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>46015</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -652,23 +669,31 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>45950.90550850052</v>
+      <c r="G5" s="2" t="n">
+        <v>45950.90550849537</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>user1</t>
         </is>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>45953.36384183385</v>
+      <c r="I5" s="2" t="n">
+        <v>45953.3638418287</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Prevedere budget aggiuntivo</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>cliente-vip</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>04/12/2025</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45995</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -695,23 +720,31 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G6" s="3" t="n">
-        <v>45959.20759183385</v>
+      <c r="G6" s="2" t="n">
+        <v>45959.2075918287</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="I6" s="3" t="n">
-        <v>45968.49925850052</v>
+      <c r="I6" s="2" t="n">
+        <v>45968.49925849537</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Preparare materiale promozionale</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>formazione, interno</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>03/01/2026</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>46025</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -738,23 +771,31 @@
           <t>user2</t>
         </is>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>45933.90689738941</v>
+      <c r="G7" s="2" t="n">
+        <v>45933.90689738426</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>editor</t>
         </is>
       </c>
-      <c r="I7" s="3" t="n">
-        <v>45940.03189738941</v>
+      <c r="I7" s="2" t="n">
+        <v>45940.03189738426</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Coordinare con team marketing</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>tech, innovazione</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>22/04/2026</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>46134</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -781,23 +822,31 @@
           <t>manager</t>
         </is>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>45917.67356405607</v>
+      <c r="G8" s="2" t="n">
+        <v>45917.67356405093</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>user2</t>
         </is>
       </c>
-      <c r="I8" s="3" t="n">
-        <v>45928.13189738941</v>
+      <c r="I8" s="2" t="n">
+        <v>45928.13189738426</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Preparare materiale promozionale</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>tech, innovazione</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>28/04/2026</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>46140</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -820,17 +869,21 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G9" s="3" t="n">
-        <v>45905.23050850052</v>
+      <c r="G9" s="2" t="n">
+        <v>45905.23050849537</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>vendite, commerciale</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>19/04/2026</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>46131</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -857,23 +910,31 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G10" s="3" t="n">
-        <v>45961.34439738941</v>
+      <c r="G10" s="2" t="n">
+        <v>45961.34439738426</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>editor</t>
         </is>
       </c>
-      <c r="I10" s="3" t="n">
-        <v>45967.26106405607</v>
+      <c r="I10" s="2" t="n">
+        <v>45967.26106405092</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Webinar tecnico per clienti</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>05/03/2026</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>46086</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -900,23 +961,27 @@
           <t>user2</t>
         </is>
       </c>
-      <c r="G11" s="3" t="n">
-        <v>45927.99370294496</v>
+      <c r="G11" s="2" t="n">
+        <v>45927.99370293981</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>user2</t>
         </is>
       </c>
-      <c r="I11" s="3" t="n">
-        <v>45931.53536961163</v>
+      <c r="I11" s="2" t="n">
+        <v>45931.53536960648</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>13/03/2026</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>46094</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -943,23 +1008,31 @@
           <t>user2</t>
         </is>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>45914.87495294496</v>
+      <c r="G12" s="2" t="n">
+        <v>45914.87495293981</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>editor</t>
         </is>
       </c>
-      <c r="I12" s="3" t="n">
-        <v>45917.12495294496</v>
+      <c r="I12" s="2" t="n">
+        <v>45917.12495293981</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Follow-up necessario</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>networking, esterno</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>01/01/2026</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>46023</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -982,23 +1055,27 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G13" s="3" t="n">
-        <v>45951.47981405607</v>
+      <c r="G13" s="2" t="n">
+        <v>45951.47981405092</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>manager</t>
         </is>
       </c>
-      <c r="I13" s="3" t="n">
-        <v>45958.10481405607</v>
-      </c>
+      <c r="I13" s="2" t="n">
+        <v>45958.10481405092</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Evento importante per stakeholder</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>05/03/2026</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>46086</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1025,23 +1102,27 @@
           <t>manager</t>
         </is>
       </c>
-      <c r="G14" s="3" t="n">
-        <v>45909.70620294497</v>
+      <c r="G14" s="2" t="n">
+        <v>45909.70620293981</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>user2</t>
         </is>
       </c>
-      <c r="I14" s="3" t="n">
-        <v>45916.99786961163</v>
-      </c>
+      <c r="I14" s="2" t="n">
+        <v>45916.99786960648</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Webinar tecnico per clienti</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>14/03/2026</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>46095</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1064,23 +1145,31 @@
           <t>user2</t>
         </is>
       </c>
-      <c r="G15" s="3" t="n">
-        <v>45926.34439738941</v>
+      <c r="G15" s="2" t="n">
+        <v>45926.34439738426</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>editor</t>
         </is>
       </c>
-      <c r="I15" s="3" t="n">
-        <v>45930.51106405607</v>
+      <c r="I15" s="2" t="n">
+        <v>45930.51106405092</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Preparare materiale promozionale</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>cliente-vip</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>15/12/2025</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>46006</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1107,17 +1196,25 @@
           <t>manager</t>
         </is>
       </c>
-      <c r="G16" s="3" t="n">
-        <v>45936.79717516719</v>
+      <c r="G16" s="2" t="n">
+        <v>45936.79717516204</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Coordinare con team marketing</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>strategico, high-priority</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>13/03/2026</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>46094</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1140,23 +1237,31 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G17" s="3" t="n">
-        <v>45957.33189738941</v>
+      <c r="G17" s="2" t="n">
+        <v>45957.33189738426</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>user1</t>
         </is>
       </c>
-      <c r="I17" s="3" t="n">
-        <v>45960.70689738941</v>
+      <c r="I17" s="2" t="n">
+        <v>45960.70689738426</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Invitare partner esterni</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>formazione, interno</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>13/02/2026</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>46066</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1183,23 +1288,31 @@
           <t>user2</t>
         </is>
       </c>
-      <c r="G18" s="3" t="n">
-        <v>45959.53675850052</v>
+      <c r="G18" s="2" t="n">
+        <v>45959.53675849537</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>user2</t>
         </is>
       </c>
-      <c r="I18" s="3" t="n">
-        <v>45968.32842516719</v>
+      <c r="I18" s="2" t="n">
+        <v>45968.32842516204</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Prevedere budget aggiuntivo</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>cliente-vip</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>28/04/2026</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>46140</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1226,23 +1339,31 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G19" s="3" t="n">
-        <v>45963.5957862783</v>
+      <c r="G19" s="2" t="n">
+        <v>45963.59578627314</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>manager</t>
         </is>
       </c>
-      <c r="I19" s="3" t="n">
-        <v>45966.38745294497</v>
+      <c r="I19" s="2" t="n">
+        <v>45966.38745293982</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Evento strategico Q1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>cliente-vip</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>07/02/2026</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>46060</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1269,17 +1390,25 @@
           <t>manager</t>
         </is>
       </c>
-      <c r="G20" s="3" t="n">
-        <v>45921.80620294496</v>
+      <c r="G20" s="2" t="n">
+        <v>45921.80620293981</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Evento importante per stakeholder</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>31/12/2025</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>46022</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1306,23 +1435,31 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G21" s="3" t="n">
-        <v>45954.26314738941</v>
+      <c r="G21" s="2" t="n">
+        <v>45954.26314738426</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>editor</t>
         </is>
       </c>
-      <c r="I21" s="3" t="n">
-        <v>45964.22148072274</v>
+      <c r="I21" s="2" t="n">
+        <v>45964.22148071759</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Confermare location entro fine mese</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>networking, esterno</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>18/11/2025</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>45979</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1345,23 +1482,31 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G22" s="3" t="n">
-        <v>45928.72911961163</v>
+      <c r="G22" s="2" t="n">
+        <v>45928.72911960648</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>manager</t>
         </is>
       </c>
-      <c r="I22" s="3" t="n">
-        <v>45936.6457862783</v>
+      <c r="I22" s="2" t="n">
+        <v>45936.64578627315</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Evento strategico Q1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>vendite, commerciale</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>25/01/2026</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>46047</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1388,23 +1533,27 @@
           <t>editor</t>
         </is>
       </c>
-      <c r="G23" s="3" t="n">
-        <v>45916.11106405607</v>
+      <c r="G23" s="2" t="n">
+        <v>45916.11106405093</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>editor</t>
         </is>
       </c>
-      <c r="I23" s="3" t="n">
-        <v>45920.11106405607</v>
-      </c>
+      <c r="I23" s="2" t="n">
+        <v>45920.11106405093</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Confermare location entro fine mese</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>23/02/2026</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>46076</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1431,23 +1580,31 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G24" s="3" t="n">
-        <v>45962.55481405608</v>
+      <c r="G24" s="2" t="n">
+        <v>45962.55481405093</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>user1</t>
         </is>
       </c>
-      <c r="I24" s="3" t="n">
-        <v>45966.55481405608</v>
+      <c r="I24" s="2" t="n">
+        <v>45966.55481405093</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Preparare materiale promozionale</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>formazione, interno</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>16/12/2025</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>46007</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1474,23 +1631,31 @@
           <t>manager</t>
         </is>
       </c>
-      <c r="G25" s="3" t="n">
-        <v>45924.54856405607</v>
+      <c r="G25" s="2" t="n">
+        <v>45924.54856405093</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>user2</t>
         </is>
       </c>
-      <c r="I25" s="3" t="n">
-        <v>45933.84023072274</v>
+      <c r="I25" s="2" t="n">
+        <v>45933.84023071759</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Webinar tecnico per clienti</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>cliente-vip</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>07/03/2026</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>46088</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1517,17 +1682,25 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G26" s="3" t="n">
-        <v>45952.94300850052</v>
+      <c r="G26" s="2" t="n">
+        <v>45952.94300849537</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Evento importante per stakeholder</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>tech, innovazione</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>10/12/2025</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>46001</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1554,23 +1727,31 @@
           <t>manager</t>
         </is>
       </c>
-      <c r="G27" s="3" t="n">
-        <v>45965.02009183385</v>
+      <c r="G27" s="2" t="n">
+        <v>45965.0200918287</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>user2</t>
         </is>
       </c>
-      <c r="I27" s="3" t="n">
-        <v>45968.02009183385</v>
+      <c r="I27" s="2" t="n">
+        <v>45968.0200918287</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Preparare materiale promozionale</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>marketing, brand</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>08/11/2025</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1593,17 +1774,25 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G28" s="3" t="n">
-        <v>45912.5832862783</v>
+      <c r="G28" s="2" t="n">
+        <v>45912.58328627315</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Evento importante per stakeholder</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>HR, team-building</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>10/11/2025</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45971</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1626,17 +1815,21 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G29" s="3" t="n">
-        <v>45907.01939738941</v>
+      <c r="G29" s="2" t="n">
+        <v>45907.01939738426</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>tech, innovazione</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>31/03/2026</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>46112</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1663,23 +1856,31 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G30" s="3" t="n">
-        <v>45941.55064738941</v>
+      <c r="G30" s="2" t="n">
+        <v>45941.55064738426</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>user1</t>
         </is>
       </c>
-      <c r="I30" s="3" t="n">
-        <v>45950.17564738941</v>
+      <c r="I30" s="2" t="n">
+        <v>45950.17564738426</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Prevedere budget aggiuntivo</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>marketing, brand</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>26/12/2025</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>46017</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1706,23 +1907,31 @@
           <t>editor</t>
         </is>
       </c>
-      <c r="G31" s="3" t="n">
-        <v>45945.47286961163</v>
+      <c r="G31" s="2" t="n">
+        <v>45945.47286960648</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="I31" s="3" t="n">
-        <v>45950.59786961163</v>
+      <c r="I31" s="2" t="n">
+        <v>45950.59786960648</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Evento importante per stakeholder</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>31/01/2026</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>46053</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1749,23 +1958,31 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G32" s="3" t="n">
-        <v>45930.17217516719</v>
+      <c r="G32" s="2" t="n">
+        <v>45930.17217516204</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>user2</t>
         </is>
       </c>
-      <c r="I32" s="3" t="n">
-        <v>45937.17217516719</v>
+      <c r="I32" s="2" t="n">
+        <v>45937.17217516204</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Evento strategico Q1</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>marketing, brand</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>07/01/2026</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>46029</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1788,23 +2005,31 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G33" s="3" t="n">
-        <v>45931.13120294496</v>
+      <c r="G33" s="2" t="n">
+        <v>45931.13120293982</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>manager</t>
         </is>
       </c>
-      <c r="I33" s="3" t="n">
-        <v>45941.04786961163</v>
+      <c r="I33" s="2" t="n">
+        <v>45941.04786960648</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Preparare materiale promozionale</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>19/03/2026</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>46100</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1831,17 +2056,25 @@
           <t>manager</t>
         </is>
       </c>
-      <c r="G34" s="3" t="n">
-        <v>45964.50273072274</v>
+      <c r="G34" s="2" t="n">
+        <v>45964.50273071759</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Confermare location entro fine mese</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>09/01/2026</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>46031</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1864,23 +2097,31 @@
           <t>editor</t>
         </is>
       </c>
-      <c r="G35" s="3" t="n">
-        <v>45916.37356405608</v>
+      <c r="G35" s="2" t="n">
+        <v>45916.37356405093</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>user1</t>
         </is>
       </c>
-      <c r="I35" s="3" t="n">
-        <v>45926.66523072274</v>
+      <c r="I35" s="2" t="n">
+        <v>45926.66523071759</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Follow-up necessario</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>formazione, interno</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>46027</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1907,17 +2148,25 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G36" s="3" t="n">
-        <v>45942.78536961163</v>
+      <c r="G36" s="2" t="n">
+        <v>45942.78536960648</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Coordinare con team marketing</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>cliente-vip</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>21/03/2026</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>46102</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1940,23 +2189,31 @@
           <t>editor</t>
         </is>
       </c>
-      <c r="G37" s="3" t="n">
-        <v>45949.5582862783</v>
+      <c r="G37" s="2" t="n">
+        <v>45949.55828627315</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="I37" s="3" t="n">
-        <v>45952.59995294496</v>
+      <c r="I37" s="2" t="n">
+        <v>45952.59995293982</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Follow-up necessario</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>17/02/2026</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>46070</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1983,23 +2240,31 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G38" s="3" t="n">
-        <v>45905.59717516719</v>
+      <c r="G38" s="2" t="n">
+        <v>45905.59717516204</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>manager</t>
         </is>
       </c>
-      <c r="I38" s="3" t="n">
-        <v>45911.72217516719</v>
+      <c r="I38" s="2" t="n">
+        <v>45911.72217516204</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Invitare partner esterni</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>tech, innovazione</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>10/02/2026</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>46063</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2026,17 +2291,25 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G39" s="3" t="n">
-        <v>45909.77286961163</v>
+      <c r="G39" s="2" t="n">
+        <v>45909.77286960648</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Evento strategico Q1</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>tech, innovazione</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>28/11/2025</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>45989</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2063,23 +2336,31 @@
           <t>manager</t>
         </is>
       </c>
-      <c r="G40" s="3" t="n">
-        <v>45926.72356405608</v>
+      <c r="G40" s="2" t="n">
+        <v>45926.72356405092</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>user2</t>
         </is>
       </c>
-      <c r="I40" s="3" t="n">
-        <v>45929.89023072274</v>
+      <c r="I40" s="2" t="n">
+        <v>45929.8902307176</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Preparare materiale promozionale</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>marketing, brand</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>08/12/2025</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>45999</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2102,17 +2383,21 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G41" s="3" t="n">
-        <v>45915.90689738941</v>
+      <c r="G41" s="2" t="n">
+        <v>45915.90689738426</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Follow-up necessario</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>17/01/2026</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>46039</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2139,17 +2424,25 @@
           <t>user2</t>
         </is>
       </c>
-      <c r="G42" s="3" t="n">
-        <v>45938.04231405607</v>
+      <c r="G42" s="2" t="n">
+        <v>45938.04231405092</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Confermare location entro fine mese</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>vendite, commerciale</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>27/04/2026</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>46139</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2172,23 +2465,31 @@
           <t>user1</t>
         </is>
       </c>
-      <c r="G43" s="3" t="n">
-        <v>45905.14509183385</v>
+      <c r="G43" s="2" t="n">
+        <v>45905.1450918287</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="I43" s="3" t="n">
-        <v>45915.60342516719</v>
+      <c r="I43" s="2" t="n">
+        <v>45915.60342516204</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Webinar tecnico per clienti</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>cliente-vip</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>31/12/2025</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>46022</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2215,23 +2516,31 @@
           <t>manager</t>
         </is>
       </c>
-      <c r="G44" s="3" t="n">
-        <v>45922.75342516719</v>
+      <c r="G44" s="2" t="n">
+        <v>45922.75342516204</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="I44" s="3" t="n">
-        <v>45930.67009183385</v>
+      <c r="I44" s="2" t="n">
+        <v>45930.6700918287</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Webinar tecnico per clienti</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>vendite, commerciale</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>04/04/2026</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>46116</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2258,23 +2567,31 @@
           <t>user2</t>
         </is>
       </c>
-      <c r="G45" s="3" t="n">
-        <v>45944.7082862783</v>
+      <c r="G45" s="2" t="n">
+        <v>45944.70828627315</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="I45" s="3" t="n">
-        <v>45946.62495294496</v>
+      <c r="I45" s="2" t="n">
+        <v>45946.62495293981</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Prevedere budget aggiuntivo</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>strategico, high-priority</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>14/12/2025</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>46005</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2301,17 +2618,21 @@
           <t>user2</t>
         </is>
       </c>
-      <c r="G46" s="3" t="n">
-        <v>45942.40064738941</v>
+      <c r="G46" s="2" t="n">
+        <v>45942.40064738426</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Coordinare con team marketing</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>30/01/2026</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>46052</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2334,23 +2655,31 @@
           <t>editor</t>
         </is>
       </c>
-      <c r="G47" s="3" t="n">
-        <v>45957.44300850052</v>
+      <c r="G47" s="2" t="n">
+        <v>45957.44300849537</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>editor</t>
         </is>
       </c>
-      <c r="I47" s="3" t="n">
-        <v>45965.35967516719</v>
+      <c r="I47" s="2" t="n">
+        <v>45965.35967516204</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Confermare location entro fine mese</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>cliente-vip</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>27/12/2025</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>46018</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2377,23 +2706,31 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G48" s="3" t="n">
-        <v>45905.79717516719</v>
+      <c r="G48" s="2" t="n">
+        <v>45905.79717516204</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>user2</t>
         </is>
       </c>
-      <c r="I48" s="3" t="n">
-        <v>45913.96384183385</v>
+      <c r="I48" s="2" t="n">
+        <v>45913.96384182871</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Invitare partner esterni</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>formazione, interno</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>09/01/2026</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>46031</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2420,23 +2757,31 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G49" s="3" t="n">
-        <v>45964.53398072274</v>
+      <c r="G49" s="2" t="n">
+        <v>45964.53398071759</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>editor</t>
         </is>
       </c>
-      <c r="I49" s="3" t="n">
-        <v>45969.90898072274</v>
+      <c r="I49" s="2" t="n">
+        <v>45969.90898071759</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Evento importante per stakeholder</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>marketing, brand</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>20/12/2025</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>46011</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2459,23 +2804,31 @@
           <t>user2</t>
         </is>
       </c>
-      <c r="G50" s="3" t="n">
-        <v>45933.58259183385</v>
+      <c r="G50" s="2" t="n">
+        <v>45933.5825918287</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
           <t>editor</t>
         </is>
       </c>
-      <c r="I50" s="3" t="n">
-        <v>45936.45759183385</v>
+      <c r="I50" s="2" t="n">
+        <v>45936.4575918287</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Webinar tecnico per clienti</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>cliente-vip</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>15/12/2025</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>46006</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2502,19 +2855,64 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="G51" s="3" t="n">
-        <v>45923.63189738941</v>
+      <c r="G51" s="2" t="n">
+        <v>45923.63189738426</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>45969</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>evento test</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>www.logotel.it</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>aldo baglio</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>EVENTI che interessano a logotel</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ruta</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45967.49816744581</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>test inserimento evento</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
-  <dataValidations count="1">
-    <dataValidation sqref="E2:E1000" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Categoria non valida" error="La categoria deve essere una delle opzioni previste" promptTitle="Categorie disponibili" prompt="Seleziona una categoria dalla lista" type="list">
-      <formula1>"EVENTI sociali/politici/economici,EVENTI delle organizzazioni,EVENTI che interessano a logotel,EVENTI di logotel che farà"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>